--- a/Andrew-annotations/BJRI_Q2_2019.xlsx
+++ b/Andrew-annotations/BJRI_Q2_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCA8666-B503-410F-A37A-9E52999C4C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6F7275-DF83-4D8C-99E8-5982011F3083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,16 +669,16 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -698,22 +698,22 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
@@ -736,13 +736,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -765,16 +765,16 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -861,16 +861,16 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -925,16 +925,16 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -957,10 +957,10 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -989,10 +989,10 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1181,13 +1181,13 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1309,10 +1309,10 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1469,16 +1469,16 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -1501,10 +1501,10 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>2</v>
